--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/15/seed4/result_data_KNN.xlsx
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.828</v>
+        <v>-21.766</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.41</v>
+        <v>-22.187</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.042</v>
+        <v>-20.385</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.996</v>
+        <v>-21.912</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-20.76</v>
+        <v>-19.823</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.64</v>
+        <v>-21.69</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.186</v>
+        <v>-20.009</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.62</v>
+        <v>-19.854</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.106</v>
+        <v>-21.986</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.868</v>
+        <v>-22.054</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.986</v>
+        <v>-21.524</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
